--- a/data/long_bre/P19_1-Urba-long_bre.xlsx
+++ b/data/long_bre/P19_1-Urba-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,92</t>
+          <t>-7,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,47%</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-25,44%</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,65%</t>
+          <t>-6,34%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-26,27%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-4,26%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-17,34%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13,27%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 6,4</t>
+          <t>-9,6; 4,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,19; -0,93</t>
+          <t>-13,72; -0,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 4,7</t>
+          <t>-7,88; 4,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,93; 26,91</t>
+          <t>-12,57; 0,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-44,31; -3,53</t>
+          <t>-3,61; 9,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 15,83</t>
+          <t>-28,37; 18,55</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-44,26; -3,24</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-20,58; 15,67</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-34,58; 4,42</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-12,75; 45,85</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,3</t>
+          <t>6,72</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,67%</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,28%</t>
+          <t>1,46%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2,49%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16,86%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10,82%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-5,05%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 6,31</t>
+          <t>-7,25; 7,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 8,51</t>
+          <t>-7,2; 8,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,94; 13,72</t>
+          <t>0,26; 13,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 15,87</t>
+          <t>-3,1; 11,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 24,34</t>
+          <t>-10,62; 5,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 38,37</t>
+          <t>-14,87; 17,24</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-15,69; 22,13</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 37,68</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-6,49; 30,95</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-20,95; 12,13</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,71</t>
+          <t>-5,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-22,12%</t>
+          <t>4,23%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>18,82%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-20,22%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3,1%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-3,52%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 7,09</t>
+          <t>-4,73; 7,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 12,74</t>
+          <t>-0,69; 13,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 0,16</t>
+          <t>-12,61; 0,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,86; 29,86</t>
+          <t>-6,22; 8,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 42,68</t>
+          <t>-9,36; 6,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-41,55; 1,37</t>
+          <t>-15,53; 31,35</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-2,24; 45,56</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-40,05; 2,11</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-21,41; 37,38</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-28,96; 27,16</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,76</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-16,94%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 11,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 2,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 10,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 54,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,93; 10,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,16; 41,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-9,61</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-3,87</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-19,46%</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,73%</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>13,45%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-13,95%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11,76%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,61%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-1,57%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,27; -1,76</t>
+          <t>-3,22; 10,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 6,4</t>
+          <t>-11,86; 3,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 7,71</t>
+          <t>-3,85; 10,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-34,87; -3,61</t>
+          <t>-8,95; 7,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,87; 16,37</t>
+          <t>-20,33; 14,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 20,42</t>
+          <t>-11,06; 46,77</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-37,14; 14,47</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-11,68; 39,72</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-27,81; 37,27</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-45,44; 53,25</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>-7,56</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,06</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>-4,08</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>24,82%</t>
+          <t>-9,12</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-15,88%</t>
+          <t>-15,84%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-5,27%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-1,07%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-7,76%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-21,55%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 12,49</t>
+          <t>-15,1; 0,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 13,95</t>
+          <t>-11,19; 6,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 2,08</t>
+          <t>-8,07; 6,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 56,89</t>
+          <t>-13,14; 5,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 59,57</t>
+          <t>-22,46; 7,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,09; 10,89</t>
+          <t>-29,06; 2,33</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-22,72; 15,52</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-16,19; 16,94</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-22,65; 10,63</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-46,53; 20,66</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>-3,07</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-8,21%</t>
+          <t>9,71</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>19,2%</t>
+          <t>15,45%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>22,11%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-12,34%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>18,84%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>48,39%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 14,91</t>
+          <t>-3,24; 11,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-17,2; 11,18</t>
+          <t>-0,32; 13,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 16,76</t>
+          <t>-9,13; 3,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-36,04; 116,76</t>
+          <t>-3,76; 11,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-46,22; 58,11</t>
+          <t>-3,05; 23,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-28,35; 90,67</t>
+          <t>-10,94; 46,04</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; 57,12</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-32,57; 18,6</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-15,22; 66,38</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-12,23; 162,22</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-2,65%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 23,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 18,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 13,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 69,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,96; 72,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,06; 37,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-10,75</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-3,87</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-31,62%</t>
+          <t>13,34</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,79%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-12,58%</t>
+          <t>16,51%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3,05%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>14,2%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>57,4%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 2,9</t>
+          <t>-9,13; 15,56</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-19,25; 13,99</t>
+          <t>-12,58; 15,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,82; 8,33</t>
+          <t>-9,8; 16,56</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-56,53; 10,89</t>
+          <t>-18,35; 29,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-39,04; 49,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-45,89; 38,93</t>
+          <t>-35,37; 115,66</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-37,03; 84,3</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-28,27; 84,69</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-46,13; 289,48</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-5,58</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-20,12%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>17,31%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>11,91%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-1,7%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-0,82%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 6,6</t>
+          <t>-7,2; 21,62</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-10,59; -1,07</t>
+          <t>-10,88; 17,94</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 5,46</t>
+          <t>-13,18; 12,64</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 28,98</t>
+          <t>-18,48; 22,08</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-34,9; -4,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 18,35</t>
+          <t>-14,2; 59,11</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-25,87; 74,42</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-26,71; 36,47</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-32,02; 75,44</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>-10,91</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-4,74</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-6,85%</t>
+          <t>-12,97</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>-30,28%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-11,69%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-10,18%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-41,31%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 2,45</t>
+          <t>-24,66; 2,33</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 5,64</t>
+          <t>-21,84; 11,87</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 8,68</t>
+          <t>-17,51; 9,49</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,35; 5,56</t>
+          <t>-34,35; 2,73</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 14,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 22,41</t>
+          <t>-56,46; 9,46</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-44,15; 38,67</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-44,61; 46,23</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-71,44; 20,88</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-4,88</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-18,56%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1978,539 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 5,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0,22; 10,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-9,74; -0,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 23,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 34,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-32,91; -3,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>-4,94</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1,16</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>-0,94</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>2,08</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-18,14%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>3,68%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-3,31%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>7,37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-3,59; 5,02</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-9,8; -0,54</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-3,75; 5,22</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-6,96; 4,51</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-5,75; 8,0</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-12,25; 21,68</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-32,83; -2,08</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-10,8; 18,15</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-21,5; 17,65</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-17,97; 32,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-1,85</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-3,6</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-4,02%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>0,18%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>7,1%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-7,96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-7,41; 2,67</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-5,48; 5,54</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 8,01</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-5,25; 6,37</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-10,87; 3,68</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-15,09; 5,97</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-12,23; 14,53</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-2,9; 20,39</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-10,37; 14,47</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-22,33; 9,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>4,87</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-4,16</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>3,48%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>15,38%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-15,97%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>1,97%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>5,74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-3,01; 5,56</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 10,22</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-8,83; -0,24</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-4,57; 5,05</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-5,87; 8,26</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-9,94; 21,92</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 35,92</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-30,16; -0,96</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-16,6; 23,62</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>-19,52; 35,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P19_1-Urba-long_bre.xlsx
+++ b/data/long_bre/P19_1-Urba-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -754,7 +754,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -868,7 +868,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1100,7 +1100,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1214,7 +1214,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1434,7 +1434,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1536,7 +1536,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1756,7 +1756,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1870,7 +1870,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
